--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process3_DailyRecon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD278FA3-9780-42C2-8A8F-63D777643270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01991B4A-F027-47D2-8FC6-F66E16126EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -146,13 +146,31 @@
   </si>
   <si>
     <t>Admin_Login</t>
+  </si>
+  <si>
+    <t>NextCloud_Login</t>
+  </si>
+  <si>
+    <t>NextCloud_Path</t>
+  </si>
+  <si>
+    <t>https://nextcloud.tngdigital.com.my/</t>
+  </si>
+  <si>
+    <t>CIMB_Path</t>
+  </si>
+  <si>
+    <t>https://emerchant.cimbbank.com.my/eaccess/merchant</t>
+  </si>
+  <si>
+    <t>CIMB_Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -176,6 +194,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,10 +218,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -207,8 +232,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,7 +551,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -633,10 +660,38 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1622,8 +1677,11 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{61481728-2880-4E0D-B510-DD5835761C34}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process3_DailyRecon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01991B4A-F027-47D2-8FC6-F66E16126EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7A1BFC-80BA-4901-BF6D-5D9FACF3D505}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -142,28 +142,34 @@
     <t>Admin_Path</t>
   </si>
   <si>
+    <t>Admin_Login</t>
+  </si>
+  <si>
+    <t>NextCloud_Login</t>
+  </si>
+  <si>
+    <t>NextCloud_Path</t>
+  </si>
+  <si>
+    <t>https://nextcloud.tngdigital.com.my/</t>
+  </si>
+  <si>
+    <t>CIMB_Path</t>
+  </si>
+  <si>
+    <t>https://emerchant.cimbbank.com.my/eaccess/merchant</t>
+  </si>
+  <si>
+    <t>CIMB_Login</t>
+  </si>
+  <si>
+    <t>https://twadmin.tngdigital.com.my/admin/login.html</t>
+  </si>
+  <si>
+    <t>Admin_UAT</t>
+  </si>
+  <si>
     <t>http://sit01admin.tngdigital.com.my/admin/login.html</t>
-  </si>
-  <si>
-    <t>Admin_Login</t>
-  </si>
-  <si>
-    <t>NextCloud_Login</t>
-  </si>
-  <si>
-    <t>NextCloud_Path</t>
-  </si>
-  <si>
-    <t>https://nextcloud.tngdigital.com.my/</t>
-  </si>
-  <si>
-    <t>CIMB_Path</t>
-  </si>
-  <si>
-    <t>https://emerchant.cimbbank.com.my/eaccess/merchant</t>
-  </si>
-  <si>
-    <t>CIMB_Login</t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -649,50 +655,57 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process3_DailyRecon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7A1BFC-80BA-4901-BF6D-5D9FACF3D505}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D54117-3EF6-4E70-A5BE-4E07FAB5B844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process3_DailyRecon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D54117-3EF6-4E70-A5BE-4E07FAB5B844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118149D-A19E-4890-8B0C-4EB3E6F8033E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>http://sit01admin.tngdigital.com.my/admin/login.html</t>
+  </si>
+  <si>
+    <t>Sage_Login</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -644,69 +647,76 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1688,10 +1698,11 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{61481728-2880-4E0D-B510-DD5835761C34}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{61481728-2880-4E0D-B510-DD5835761C34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process3_DailyRecon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118149D-A19E-4890-8B0C-4EB3E6F8033E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D425D9C-3754-4714-A8F7-B3EB121C8E80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process3_DailyRecon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D425D9C-3754-4714-A8F7-B3EB121C8E80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CF14BE-E47C-4664-80EB-3FF2E4A866BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process3_DailyRecon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CF14BE-E47C-4664-80EB-3FF2E4A866BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C988B03-035B-4D8E-83F9-0C30808D3321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>File_Path</t>
   </si>
   <si>
-    <t>C:\Users\rpavendor\Desktop\RPATEST\Process 3\</t>
-  </si>
-  <si>
     <t>SAGE_Login</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Sage_Login</t>
+  </si>
+  <si>
+    <t>C:\Users\rpavendor\Desktop\RPATEST\Process 3</t>
   </si>
 </sst>
 </file>
@@ -190,6 +190,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -208,6 +209,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -559,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -633,88 +635,88 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>
